--- a/db/Nivel.xlsx
+++ b/db/Nivel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Posgrado\Proyecto Titulacion\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B2CC3D-29EE-489D-8155-58F7AC018971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214A215-36BD-4F53-9567-43E769164871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1103A901-167A-46B8-88ED-8173631D3CA8}"/>
   </bookViews>
@@ -77,13 +77,13 @@
     <t>Sup</t>
   </si>
   <si>
-    <t>Inc</t>
-  </si>
-  <si>
     <t>Bas</t>
   </si>
   <si>
     <t>Inv</t>
+  </si>
+  <si>
+    <t>Ini</t>
   </si>
 </sst>
 </file>
@@ -119,10 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEFA2F0-845D-450B-9EC0-5F58E3288B41}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +497,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -512,7 +511,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -526,7 +525,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -565,9 +564,6 @@
       <c r="D7" s="1">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
